--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_1_Transport_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_1_Transport_fueltechs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>tech</t>
   </si>
@@ -74,7 +74,7 @@
     <t>TRA_FT_AMM_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_ELCSYS_DT</t>
+    <t>TRA_FT_MTH</t>
   </si>
   <si>
     <t>TRA_FT_DST_INT</t>
@@ -86,7 +86,7 @@
     <t>TRA_FT_AMM_INT_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_INT_ELCSYS_DT</t>
+    <t>TRA_FT_MTH_INT</t>
   </si>
   <si>
     <t>PRI_COA_HCO</t>
@@ -101,6 +101,9 @@
     <t>RNW_BIO_EMHV</t>
   </si>
   <si>
+    <t>SYN_DST_kt</t>
+  </si>
+  <si>
     <t>PRI_OIL_GSL_kt</t>
   </si>
   <si>
@@ -128,7 +131,7 @@
     <t>HH2_WE_CU</t>
   </si>
   <si>
-    <t>HH2_WE_DT</t>
+    <t>SYN_MTH</t>
   </si>
   <si>
     <t>output_comm</t>
@@ -140,15 +143,15 @@
     <t>HH2_DEL_TRA_LH2_C_1_NEW</t>
   </si>
   <si>
-    <t>HH2_DEL_TRA_GH2_C_1_NEW</t>
-  </si>
-  <si>
     <t>HH2_DEL_TRA_LH2_C_2_NEW</t>
   </si>
   <si>
     <t>HH2_DEL_TRA_GH2_C_4_NEW</t>
   </si>
   <si>
+    <t>HH2_DEL_TRA_LH2_D_1_NEW</t>
+  </si>
+  <si>
     <t>TRA_COA</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
   </si>
   <si>
     <t>TRA_AMM</t>
+  </si>
+  <si>
+    <t>TRA_MTH</t>
   </si>
   <si>
     <t>TRA_LH2</t>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,19 +595,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.582</v>
+        <v>0.2910000000000001</v>
       </c>
       <c r="E2">
-        <v>0.334</v>
+        <v>0.439</v>
       </c>
       <c r="F2">
-        <v>0.3689999999999999</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1387570603255635</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H2">
-        <v>0.06937853016278178</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -627,19 +633,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.291</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.369</v>
+      </c>
+      <c r="G3">
         <v>0.105</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.06937853016278178</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -665,31 +671,31 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>205539.025496878</v>
+        <v>205539.0254968777</v>
       </c>
       <c r="E4">
-        <v>219100.3696534287</v>
+        <v>219100.3696534288</v>
       </c>
       <c r="F4">
-        <v>211310.0781553262</v>
+        <v>211333.8333026217</v>
       </c>
       <c r="G4">
-        <v>212626.1841949566</v>
+        <v>210507.3487231962</v>
       </c>
       <c r="H4">
-        <v>190583.499371055</v>
+        <v>188726.7996813303</v>
       </c>
       <c r="I4">
-        <v>177271.3947240244</v>
+        <v>149236.5761740873</v>
       </c>
       <c r="J4">
-        <v>146992.4479115275</v>
+        <v>148985.411970381</v>
       </c>
       <c r="K4">
-        <v>130317.5077471694</v>
+        <v>128331.0194394993</v>
       </c>
       <c r="L4">
-        <v>42622.6031659775</v>
+        <v>53016.30627192495</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -703,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>5592.273121501918</v>
+        <v>5592.273121501841</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -712,22 +718,22 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7230.908434137675</v>
+        <v>9597.4</v>
       </c>
       <c r="H5">
         <v>12181.8</v>
       </c>
       <c r="I5">
-        <v>8705.555281845031</v>
+        <v>14426.4</v>
       </c>
       <c r="J5">
-        <v>16671</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>18915.65</v>
       </c>
       <c r="L5">
-        <v>13351.60664945124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -735,37 +741,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>79217.14186748717</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>70720.61381623767</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>63062.10694215229</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>72853.43318827824</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>56903.77832426164</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>47547.75670454184</v>
+        <v>21215.86401234659</v>
       </c>
       <c r="J6">
-        <v>41395.24244140878</v>
+        <v>9545.335602835419</v>
       </c>
       <c r="K6">
-        <v>47547.41304048795</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>49500.78092808707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -779,31 +785,31 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>6544.024762966332</v>
+        <v>79217.1418674875</v>
       </c>
       <c r="E7">
-        <v>5842.137663080503</v>
+        <v>70720.61381623764</v>
       </c>
       <c r="F7">
-        <v>5209.478399569102</v>
+        <v>63040.75572271757</v>
       </c>
       <c r="G7">
-        <v>6018.327089466463</v>
+        <v>72853.01097550039</v>
       </c>
       <c r="H7">
-        <v>4965.197649418925</v>
+        <v>61074.41664528834</v>
       </c>
       <c r="I7">
-        <v>3927.858162549108</v>
+        <v>60971.64050718337</v>
       </c>
       <c r="J7">
-        <v>3419.60698429029</v>
+        <v>55390.07848747828</v>
       </c>
       <c r="K7">
-        <v>3927.829772909874</v>
+        <v>59028.27592587208</v>
       </c>
       <c r="L7">
-        <v>4089.194946233281</v>
+        <v>52872.39265484893</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -817,31 +823,31 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>344.4223559455963</v>
+        <v>6544.024762966361</v>
       </c>
       <c r="E8">
-        <v>307.4809296358159</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F8">
-        <v>274.1830736615318</v>
+        <v>5207.714603181018</v>
       </c>
       <c r="G8">
-        <v>316.7540573403402</v>
+        <v>6018.292211019599</v>
       </c>
       <c r="H8">
-        <v>3462.572044989514</v>
+        <v>5329.110981678431</v>
       </c>
       <c r="I8">
-        <v>206.7293769762688</v>
+        <v>5036.787694071671</v>
       </c>
       <c r="J8">
-        <v>179.9793149626469</v>
+        <v>4575.70213592212</v>
       </c>
       <c r="K8">
-        <v>206.7278827847302</v>
+        <v>4876.248880832911</v>
       </c>
       <c r="L8">
-        <v>215.2207866438568</v>
+        <v>4367.719393226651</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -849,37 +855,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>66.91234564031244</v>
+        <v>344.4223559455978</v>
       </c>
       <c r="E9">
-        <v>102.5820087418906</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F9">
-        <v>102.5820087418906</v>
+        <v>274.090242272685</v>
       </c>
       <c r="G9">
-        <v>102.5820087418906</v>
+        <v>316.7522216326104</v>
       </c>
       <c r="H9">
-        <v>6.639764936336924</v>
+        <v>3716.353710907327</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>265.0940891616669</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>240.8264282064273</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>256.6446779385742</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>229.8799680645606</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -887,37 +893,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>7440.438491302202</v>
+        <v>66.91234564031244</v>
       </c>
       <c r="E10">
-        <v>8087.043507027061</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="F10">
-        <v>4769.284525849926</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="G10">
-        <v>8428.673142576759</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="H10">
-        <v>8880.115393079439</v>
+        <v>6.639764936336924</v>
       </c>
       <c r="I10">
-        <v>9277.09142336564</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9679.933362930613</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>10042.64657414973</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10345.59247099006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -925,37 +931,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>229.1565474368445</v>
+        <v>7440.438491302202</v>
       </c>
       <c r="E11">
-        <v>284.0669110913908</v>
+        <v>8087.043507027061</v>
       </c>
       <c r="F11">
-        <v>252.4097255083492</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G11">
-        <v>205.7653683019905</v>
+        <v>8428.673142576765</v>
       </c>
       <c r="H11">
-        <v>284.0669110913908</v>
+        <v>8880.115393079437</v>
       </c>
       <c r="I11">
-        <v>284.0669110913908</v>
+        <v>9277.091423365639</v>
       </c>
       <c r="J11">
-        <v>284.0669110913908</v>
+        <v>9679.933362930615</v>
       </c>
       <c r="K11">
-        <v>284.0669110913908</v>
+        <v>10042.64657414973</v>
       </c>
       <c r="L11">
-        <v>284.0669110913908</v>
+        <v>10345.59247099006</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -963,37 +969,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12">
-        <v>10.38164779160708</v>
+        <v>229.1565474368415</v>
       </c>
       <c r="E12">
-        <v>4.541970908828096</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>252.4097255083492</v>
       </c>
       <c r="G12">
-        <v>17.52352150537634</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H12">
-        <v>14.01881720430107</v>
+        <v>149.2089439835033</v>
       </c>
       <c r="I12">
-        <v>10.5141129032258</v>
+        <v>41.15948625803754</v>
       </c>
       <c r="J12">
-        <v>7.009408602150537</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.504704301075269</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>18.00541834677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1007,31 +1013,31 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9.862565402026727</v>
       </c>
       <c r="E13">
-        <v>0.6488529869754424</v>
+        <v>4.541970908828097</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>8.761760752688172</v>
+        <v>17.52352150537634</v>
       </c>
       <c r="H13">
-        <v>12.26646505376344</v>
+        <v>18.00541834677419</v>
       </c>
       <c r="I13">
-        <v>15.77116935483871</v>
+        <v>18.0054183467742</v>
       </c>
       <c r="J13">
-        <v>19.27587365591398</v>
+        <v>7.009408602150538</v>
       </c>
       <c r="K13">
-        <v>22.78057795698925</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.279863911290322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1039,37 +1045,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.519082389580354</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.6488529869754424</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>8.761760752688174</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="I14">
-        <v>0.08920509891261064</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="J14">
-        <v>0.6339985924219346</v>
+        <v>19.27587365591398</v>
       </c>
       <c r="K14">
-        <v>4.040435035409769</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.040435035409768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1077,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1095,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.01680596895144444</v>
       </c>
       <c r="I15">
-        <v>0.0151319583276069</v>
+        <v>0.1043370572402176</v>
       </c>
       <c r="J15">
-        <v>0.0151319583276069</v>
+        <v>0.6491305507495414</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.040435035409767</v>
       </c>
       <c r="L15">
-        <v>19.76802097913652</v>
+        <v>23.80845601454629</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1115,37 +1121,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>3516.000795070563</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3878.663459399533</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2109.600477042338</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1872.000790906009</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>7402.488372093024</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2280.336705837994</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7402.488372093024</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="K16">
-        <v>7402.488372093024</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="L16">
-        <v>410.9838605551968</v>
+        <v>0.6054866100587851</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1156,34 +1162,34 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3516.000795070563</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3878.663459399527</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G17">
-        <v>2366.491565862314</v>
+        <v>3990.836262666459</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7402.488372093024</v>
       </c>
       <c r="I17">
-        <v>5720.844718154966</v>
+        <v>34596.72923533441</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16022.50220507258</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>30616.67142942653</v>
       </c>
       <c r="L17">
-        <v>7808.693350548743</v>
+        <v>21654.54341255473</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1191,37 +1197,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>1811.470425971182</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1772.368108473762</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1741.842288716095</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1764.371270141468</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1798.574400555539</v>
+        <v>16671</v>
       </c>
       <c r="K18">
-        <v>1803.598231006942</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1462.053537516444</v>
+        <v>21160.3</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1229,10 +1235,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1250,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8184476727147486</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.809849873508298</v>
+        <v>16418.73052014734</v>
       </c>
       <c r="K19">
-        <v>37.04345078595428</v>
+        <v>16743.37195998325</v>
       </c>
       <c r="L19">
-        <v>37.04345078595429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1267,37 +1273,113 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>1811.470425971182</v>
+      </c>
+      <c r="E20">
+        <v>1857.8</v>
+      </c>
+      <c r="F20">
+        <v>1772.368108473762</v>
+      </c>
+      <c r="G20">
+        <v>1857.8</v>
+      </c>
+      <c r="H20">
+        <v>1741.698567082206</v>
+      </c>
+      <c r="I20">
+        <v>593.2337390432787</v>
+      </c>
+      <c r="J20">
+        <v>26.28093064382398</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.1541223864817076</v>
+      </c>
+      <c r="I21">
+        <v>0.9571811370969205</v>
+      </c>
+      <c r="J21">
+        <v>56.6861717825832</v>
+      </c>
+      <c r="K21">
+        <v>37.04345078595428</v>
+      </c>
+      <c r="L21">
+        <v>217.9344622881691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.1387334643821726</v>
-      </c>
-      <c r="J20">
-        <v>0.1387334643821726</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>180.8910115022148</v>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.8925869894099848</v>
+      </c>
+      <c r="J22">
+        <v>5.547150781643973</v>
+      </c>
+      <c r="K22">
+        <v>34.54362077660112</v>
+      </c>
+      <c r="L22">
+        <v>34.54362077660111</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1356,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0.582</v>
@@ -1365,7 +1447,7 @@
         <v>0.439</v>
       </c>
       <c r="F2">
-        <v>0.3689999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="G2">
         <v>0.1387570603255635</v>
@@ -1394,34 +1476,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>9053.480611543575</v>
+        <v>9053.48061154356</v>
       </c>
       <c r="E3">
         <v>9421.315895097434</v>
       </c>
       <c r="F3">
-        <v>9086.333360679027</v>
+        <v>9087.354832012732</v>
       </c>
       <c r="G3">
         <v>9421.315895097434</v>
       </c>
       <c r="H3">
-        <v>8664.089772955369</v>
+        <v>8584.251686297202</v>
       </c>
       <c r="I3">
-        <v>7957.833851484086</v>
+        <v>7906.087192029004</v>
       </c>
       <c r="J3">
-        <v>6962.508760195679</v>
+        <v>6826.367481251142</v>
       </c>
       <c r="K3">
-        <v>6331.905358128283</v>
+        <v>6246.486360898467</v>
       </c>
       <c r="L3">
-        <v>2346.808792140906</v>
+        <v>2279.701169692773</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1429,37 +1511,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>225.2960000000001</v>
+        <v>225.296</v>
       </c>
       <c r="E4">
         <v>231.634</v>
       </c>
       <c r="F4">
-        <v>225.513</v>
+        <v>225.5130000000001</v>
       </c>
       <c r="G4">
-        <v>227.6503498978192</v>
+        <v>227.6453920092027</v>
       </c>
       <c r="H4">
-        <v>395.9327758165115</v>
+        <v>404.4030365867288</v>
       </c>
       <c r="I4">
-        <v>611.7944120514568</v>
+        <v>537.2481533950104</v>
       </c>
       <c r="J4">
-        <v>904.0082506718163</v>
+        <v>831.3376012963083</v>
       </c>
       <c r="K4">
-        <v>1008.969103578299</v>
+        <v>935.5503822147407</v>
       </c>
       <c r="L4">
-        <v>1744.030760025253</v>
+        <v>1743.415357717952</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1470,34 +1552,34 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>3651.221395379268</v>
+        <v>3651.221395379283</v>
       </c>
       <c r="E5">
         <v>3259.605335069285</v>
       </c>
       <c r="F5">
-        <v>2906.614763885898</v>
+        <v>2905.630658332735</v>
       </c>
       <c r="G5">
-        <v>3357.909761864946</v>
+        <v>3357.890301527303</v>
       </c>
       <c r="H5">
-        <v>2719.099028537048</v>
+        <v>2918.38946128232</v>
       </c>
       <c r="I5">
-        <v>2191.538125325426</v>
+        <v>2810.26243920283</v>
       </c>
       <c r="J5">
-        <v>1907.96071791902</v>
+        <v>2553.000965416335</v>
       </c>
       <c r="K5">
-        <v>2191.522285400924</v>
+        <v>2720.690230826825</v>
       </c>
       <c r="L5">
-        <v>2281.555559211527</v>
+        <v>2436.957541452406</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1508,19 +1590,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>66.91234564031244</v>
       </c>
       <c r="E6">
-        <v>102.5820087418906</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="F6">
-        <v>102.5820087418906</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="G6">
-        <v>102.5820087418906</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="H6">
         <v>6.639764936336924</v>
@@ -1546,7 +1628,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>319.9388551259946</v>
@@ -1558,22 +1640,22 @@
         <v>205.0792346115468</v>
       </c>
       <c r="G7">
-        <v>362.4329451308007</v>
+        <v>362.4329451308008</v>
       </c>
       <c r="H7">
         <v>381.8449619024157</v>
       </c>
       <c r="I7">
-        <v>398.9149312047225</v>
+        <v>398.9149312047224</v>
       </c>
       <c r="J7">
-        <v>416.2371346060164</v>
+        <v>416.2371346060162</v>
       </c>
       <c r="K7">
-        <v>431.8338026884383</v>
+        <v>431.8338026884385</v>
       </c>
       <c r="L7">
-        <v>444.8604762525724</v>
+        <v>444.8604762525725</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1584,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>229.1565474368445</v>
+        <v>229.1565474368415</v>
       </c>
       <c r="E8">
         <v>284.0669110913908</v>
@@ -1599,19 +1681,19 @@
         <v>205.7653683019905</v>
       </c>
       <c r="H8">
-        <v>284.0669110913908</v>
+        <v>149.2089439835033</v>
       </c>
       <c r="I8">
-        <v>284.0669110913908</v>
+        <v>41.15948625803754</v>
       </c>
       <c r="J8">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1622,13 +1704,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>10.29859460927422</v>
       </c>
       <c r="E9">
-        <v>5.149297304637111</v>
+        <v>5.14929730463711</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1646,10 +1728,10 @@
         <v>26.075</v>
       </c>
       <c r="K9">
-        <v>26.075</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>26.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1660,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1669,25 +1751,25 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.007838014369693013</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008705114254624596</v>
       </c>
       <c r="I10">
-        <v>0.04620623662776799</v>
+        <v>0.05404425099746101</v>
       </c>
       <c r="J10">
-        <v>0.3283970237151819</v>
+        <v>0.3362350380848748</v>
       </c>
       <c r="K10">
         <v>2.092854552049329</v>
       </c>
       <c r="L10">
-        <v>2.092854552049328</v>
+        <v>12.3322451940515</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1698,7 +1780,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1707,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.007838014369693013</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1716,16 +1798,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.007838014369693013</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.007838014369693015</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="L11">
-        <v>10.23939064200218</v>
+        <v>0.6054866100587851</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1733,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1751,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.008705114254624412</v>
+        <v>0.008705114254624679</v>
       </c>
       <c r="I12">
-        <v>0.008705114254624594</v>
+        <v>0.05404425099746102</v>
       </c>
       <c r="J12">
-        <v>0.008705114254624596</v>
+        <v>0.3502764422252889</v>
       </c>
       <c r="K12">
-        <v>1.838771972953553</v>
+        <v>2.180343300924216</v>
       </c>
       <c r="L12">
-        <v>1.830066858698928</v>
+        <v>2.148968618298174</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1771,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1789,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>-4.532928438931128E-07</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1801,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.72693094118988</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1809,10 +1891,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1830,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04533913674283643</v>
+        <v>7.603138222849081</v>
       </c>
       <c r="J14">
-        <v>0.3415713279706643</v>
+        <v>45.3516492538029</v>
       </c>
       <c r="K14">
-        <v>0.341571327970664</v>
+        <v>45.35164925380288</v>
       </c>
       <c r="L14">
-        <v>11.04583270078912</v>
+        <v>557.0340359926403</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1847,10 +1929,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1865,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.147415182547909E-16</v>
       </c>
       <c r="I15">
-        <v>7.603138222849083</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.603138222849084</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>7.603138222849084</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>520.9513674752515</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
